--- a/studies/peitek-2018-a-look-into-programmers-head/data/dataset-peitek-2018.xlsx
+++ b/studies/peitek-2018-a-look-into-programmers-head/data/dataset-peitek-2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utilisateur/Documents/these/studies/cpx/studies/peitek-2018-a-look-into-programmers-head/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D69E0E8B-3275-AC40-AAC2-E16F5D3F4251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8396D611-DB75-2940-81B3-28B6FF60CB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35840" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="877" uniqueCount="584">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="878" uniqueCount="585">
   <si>
     <t>Factorial</t>
   </si>
@@ -2081,6 +2081,9 @@
   </si>
   <si>
     <t>time (s)</t>
+  </si>
+  <si>
+    <t>Snippet id</t>
   </si>
 </sst>
 </file>
@@ -2635,14 +2638,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2655,14 +2663,9 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5721,8 +5724,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F52833-81AC-C948-A353-50B8BA9C27D1}">
   <dimension ref="A1:FA55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="108" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="108" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5735,18 +5738,18 @@
     <col min="9" max="9" width="10.83203125" customWidth="1"/>
     <col min="11" max="12" width="10.83203125" customWidth="1"/>
     <col min="13" max="13" width="14.1640625" customWidth="1"/>
-    <col min="26" max="75" width="0" hidden="1" customWidth="1"/>
+    <col min="26" max="75" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:157" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="D1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:157" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -6255,7 +6258,7 @@
         <v>131</v>
       </c>
       <c r="N3" s="1"/>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>132</v>
       </c>
       <c r="P3">
@@ -6291,7 +6294,7 @@
       <c r="Z3" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AA3" s="12" t="s">
+      <c r="AA3" s="11" t="s">
         <v>137</v>
       </c>
       <c r="AB3">
@@ -6327,7 +6330,7 @@
       <c r="AL3" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AM3" s="12" t="s">
+      <c r="AM3" s="11" t="s">
         <v>141</v>
       </c>
       <c r="AN3">
@@ -6360,7 +6363,7 @@
       <c r="AX3" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AY3" s="12" t="s">
+      <c r="AY3" s="11" t="s">
         <v>146</v>
       </c>
       <c r="AZ3">
@@ -6396,7 +6399,7 @@
       <c r="BJ3" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="BK3" s="12" t="s">
+      <c r="BK3" s="11" t="s">
         <v>150</v>
       </c>
       <c r="BL3">
@@ -6432,7 +6435,7 @@
       <c r="BV3" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BW3" s="12" t="s">
+      <c r="BW3" s="11" t="s">
         <v>154</v>
       </c>
       <c r="BX3">
@@ -6468,7 +6471,7 @@
       <c r="CH3" s="1">
         <v>7</v>
       </c>
-      <c r="CI3" s="12">
+      <c r="CI3" s="11">
         <v>7</v>
       </c>
       <c r="CJ3">
@@ -6504,7 +6507,7 @@
       <c r="CT3" s="1">
         <v>2</v>
       </c>
-      <c r="CU3" s="12">
+      <c r="CU3" s="11">
         <v>2</v>
       </c>
       <c r="CV3">
@@ -6540,7 +6543,7 @@
       <c r="DF3" s="1">
         <v>1</v>
       </c>
-      <c r="DG3" s="12">
+      <c r="DG3" s="11">
         <v>1</v>
       </c>
       <c r="DH3">
@@ -6576,7 +6579,7 @@
       <c r="DR3" s="1">
         <v>1</v>
       </c>
-      <c r="DS3" s="12">
+      <c r="DS3" s="11">
         <v>1</v>
       </c>
       <c r="DT3">
@@ -6612,7 +6615,7 @@
       <c r="ED3" s="1">
         <v>3</v>
       </c>
-      <c r="EE3" s="12">
+      <c r="EE3" s="11">
         <v>3</v>
       </c>
       <c r="EF3">
@@ -6719,7 +6722,7 @@
       <c r="L4" s="1">
         <v>1</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="11" t="s">
         <v>164</v>
       </c>
       <c r="N4" s="1" t="s">
@@ -7192,7 +7195,7 @@
       <c r="L5" s="1">
         <v>1</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="11" t="s">
         <v>194</v>
       </c>
       <c r="N5" s="1" t="s">
@@ -7234,7 +7237,7 @@
       <c r="Z5" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AA5" s="12" t="s">
+      <c r="AA5" s="11" t="s">
         <v>201</v>
       </c>
       <c r="AB5">
@@ -7270,7 +7273,7 @@
       <c r="AL5" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AM5" s="12" t="s">
+      <c r="AM5" s="11" t="s">
         <v>205</v>
       </c>
       <c r="AN5">
@@ -7306,7 +7309,7 @@
       <c r="AX5" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AY5" s="12" t="s">
+      <c r="AY5" s="11" t="s">
         <v>210</v>
       </c>
       <c r="AZ5">
@@ -7342,7 +7345,7 @@
       <c r="BJ5" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="BK5" s="12" t="s">
+      <c r="BK5" s="11" t="s">
         <v>212</v>
       </c>
       <c r="BL5">
@@ -7378,7 +7381,7 @@
       <c r="BV5" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="BW5" s="12" t="s">
+      <c r="BW5" s="11" t="s">
         <v>216</v>
       </c>
       <c r="BX5">
@@ -7414,7 +7417,7 @@
       <c r="CH5" s="1">
         <v>7</v>
       </c>
-      <c r="CI5" s="12">
+      <c r="CI5" s="11">
         <v>7</v>
       </c>
       <c r="CJ5">
@@ -7450,7 +7453,7 @@
       <c r="CT5" s="1">
         <v>2</v>
       </c>
-      <c r="CU5" s="12">
+      <c r="CU5" s="11">
         <v>2</v>
       </c>
       <c r="CV5">
@@ -7486,7 +7489,7 @@
       <c r="DF5" s="1">
         <v>0</v>
       </c>
-      <c r="DG5" s="12">
+      <c r="DG5" s="11">
         <v>1</v>
       </c>
       <c r="DH5">
@@ -7522,7 +7525,7 @@
       <c r="DR5" s="1">
         <v>1</v>
       </c>
-      <c r="DS5" s="12">
+      <c r="DS5" s="11">
         <v>2</v>
       </c>
       <c r="DT5">
@@ -7558,7 +7561,7 @@
       <c r="ED5" s="1">
         <v>4</v>
       </c>
-      <c r="EE5" s="12">
+      <c r="EE5" s="11">
         <v>4</v>
       </c>
       <c r="EF5">
@@ -7665,13 +7668,13 @@
       <c r="L6" s="1">
         <v>1</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="11" t="s">
         <v>194</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="11" t="s">
         <v>224</v>
       </c>
       <c r="P6">
@@ -7707,7 +7710,7 @@
       <c r="Z6" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="AA6" s="12" t="s">
+      <c r="AA6" s="11" t="s">
         <v>228</v>
       </c>
       <c r="AB6">
@@ -7743,7 +7746,7 @@
       <c r="AL6" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AM6" s="12" t="s">
+      <c r="AM6" s="11" t="s">
         <v>231</v>
       </c>
       <c r="AN6">
@@ -7779,7 +7782,7 @@
       <c r="AX6" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AY6" s="12" t="s">
+      <c r="AY6" s="11" t="s">
         <v>235</v>
       </c>
       <c r="AZ6">
@@ -7815,7 +7818,7 @@
       <c r="BJ6" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="BK6" s="12" t="s">
+      <c r="BK6" s="11" t="s">
         <v>239</v>
       </c>
       <c r="BL6">
@@ -7851,7 +7854,7 @@
       <c r="BV6" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="BW6" s="12" t="s">
+      <c r="BW6" s="11" t="s">
         <v>243</v>
       </c>
       <c r="BX6">
@@ -7887,7 +7890,7 @@
       <c r="CH6" s="1">
         <v>7</v>
       </c>
-      <c r="CI6" s="12">
+      <c r="CI6" s="11">
         <v>7</v>
       </c>
       <c r="CJ6">
@@ -7923,7 +7926,7 @@
       <c r="CT6" s="1">
         <v>1</v>
       </c>
-      <c r="CU6" s="12">
+      <c r="CU6" s="11">
         <v>1</v>
       </c>
       <c r="CV6">
@@ -7959,7 +7962,7 @@
       <c r="DF6" s="1">
         <v>0</v>
       </c>
-      <c r="DG6" s="12">
+      <c r="DG6" s="11">
         <v>0</v>
       </c>
       <c r="DH6">
@@ -7995,7 +7998,7 @@
       <c r="DR6" s="1">
         <v>0</v>
       </c>
-      <c r="DS6" s="12">
+      <c r="DS6" s="11">
         <v>0</v>
       </c>
       <c r="DT6">
@@ -8031,7 +8034,7 @@
       <c r="ED6" s="1">
         <v>4</v>
       </c>
-      <c r="EE6" s="12">
+      <c r="EE6" s="11">
         <v>4</v>
       </c>
       <c r="EF6">
@@ -8132,13 +8135,13 @@
       <c r="L7" s="1">
         <v>1</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="11" t="s">
         <v>251</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="11" t="s">
         <v>253</v>
       </c>
       <c r="P7">
@@ -8164,7 +8167,7 @@
       <c r="Z7" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AA7" s="12" t="s">
+      <c r="AA7" s="11" t="s">
         <v>257</v>
       </c>
       <c r="AB7">
@@ -8190,7 +8193,7 @@
       <c r="AL7" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="AM7" s="12" t="s">
+      <c r="AM7" s="11" t="s">
         <v>261</v>
       </c>
       <c r="AN7">
@@ -8211,7 +8214,7 @@
         <v>264</v>
       </c>
       <c r="AX7" s="1"/>
-      <c r="AY7" s="12" t="s">
+      <c r="AY7" s="11" t="s">
         <v>265</v>
       </c>
       <c r="AZ7">
@@ -8237,7 +8240,7 @@
       <c r="BJ7" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="BK7" s="12" t="s">
+      <c r="BK7" s="11" t="s">
         <v>268</v>
       </c>
       <c r="BL7">
@@ -8263,7 +8266,7 @@
       <c r="BV7" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="BW7" s="12" t="s">
+      <c r="BW7" s="11" t="s">
         <v>272</v>
       </c>
       <c r="BX7">
@@ -8299,7 +8302,7 @@
       <c r="CH7" s="1">
         <v>2</v>
       </c>
-      <c r="CI7" s="12">
+      <c r="CI7" s="11">
         <v>2</v>
       </c>
       <c r="CJ7">
@@ -8335,7 +8338,7 @@
       <c r="CT7" s="1">
         <v>2</v>
       </c>
-      <c r="CU7" s="12">
+      <c r="CU7" s="11">
         <v>2</v>
       </c>
       <c r="CV7">
@@ -8371,7 +8374,7 @@
       <c r="DF7" s="1">
         <v>1</v>
       </c>
-      <c r="DG7" s="12">
+      <c r="DG7" s="11">
         <v>0</v>
       </c>
       <c r="DH7">
@@ -8407,7 +8410,7 @@
       <c r="DR7" s="1">
         <v>0</v>
       </c>
-      <c r="DS7" s="12">
+      <c r="DS7" s="11">
         <v>1</v>
       </c>
       <c r="DT7">
@@ -8443,7 +8446,7 @@
       <c r="ED7" s="1">
         <v>2</v>
       </c>
-      <c r="EE7" s="12">
+      <c r="EE7" s="11">
         <v>2</v>
       </c>
       <c r="EF7">
@@ -8535,7 +8538,7 @@
       <c r="L8" s="1">
         <v>1</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="11" t="s">
         <v>194</v>
       </c>
       <c r="N8" s="1" t="s">
@@ -8577,7 +8580,7 @@
       <c r="Z8" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="AA8" s="12" t="s">
+      <c r="AA8" s="11" t="s">
         <v>284</v>
       </c>
       <c r="AB8">
@@ -8613,7 +8616,7 @@
       <c r="AL8" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="AM8" s="12" t="s">
+      <c r="AM8" s="11" t="s">
         <v>288</v>
       </c>
       <c r="AN8">
@@ -8649,7 +8652,7 @@
       <c r="AX8" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AY8" s="12" t="s">
+      <c r="AY8" s="11" t="s">
         <v>292</v>
       </c>
       <c r="AZ8">
@@ -8685,7 +8688,7 @@
       <c r="BJ8" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="BK8" s="12" t="s">
+      <c r="BK8" s="11" t="s">
         <v>296</v>
       </c>
       <c r="BL8">
@@ -8721,7 +8724,7 @@
       <c r="BV8" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="BW8" s="12" t="s">
+      <c r="BW8" s="11" t="s">
         <v>300</v>
       </c>
       <c r="BX8">
@@ -8757,7 +8760,7 @@
       <c r="CH8" s="1">
         <v>6</v>
       </c>
-      <c r="CI8" s="12">
+      <c r="CI8" s="11">
         <v>6</v>
       </c>
       <c r="CJ8">
@@ -8793,7 +8796,7 @@
       <c r="CT8" s="1">
         <v>2</v>
       </c>
-      <c r="CU8" s="12">
+      <c r="CU8" s="11">
         <v>2</v>
       </c>
       <c r="CV8">
@@ -8829,7 +8832,7 @@
       <c r="DF8" s="1">
         <v>1</v>
       </c>
-      <c r="DG8" s="12">
+      <c r="DG8" s="11">
         <v>0</v>
       </c>
       <c r="DH8">
@@ -8865,7 +8868,7 @@
       <c r="DR8" s="1">
         <v>0</v>
       </c>
-      <c r="DS8" s="12">
+      <c r="DS8" s="11">
         <v>1</v>
       </c>
       <c r="DT8">
@@ -8901,7 +8904,7 @@
       <c r="ED8" s="1">
         <v>3</v>
       </c>
-      <c r="EE8" s="12">
+      <c r="EE8" s="11">
         <v>3</v>
       </c>
       <c r="EF8">
@@ -9008,13 +9011,13 @@
       <c r="L9" s="1">
         <v>1</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="11" t="s">
         <v>194</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="O9" s="11" t="s">
         <v>308</v>
       </c>
       <c r="P9">
@@ -9050,7 +9053,7 @@
       <c r="Z9" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="AA9" s="12" t="s">
+      <c r="AA9" s="11" t="s">
         <v>312</v>
       </c>
       <c r="AB9">
@@ -9086,7 +9089,7 @@
       <c r="AL9" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AM9" s="12" t="s">
+      <c r="AM9" s="11" t="s">
         <v>316</v>
       </c>
       <c r="AN9">
@@ -9122,7 +9125,7 @@
       <c r="AX9" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="AY9" s="12" t="s">
+      <c r="AY9" s="11" t="s">
         <v>320</v>
       </c>
       <c r="AZ9">
@@ -9158,7 +9161,7 @@
       <c r="BJ9" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="BK9" s="12" t="s">
+      <c r="BK9" s="11" t="s">
         <v>324</v>
       </c>
       <c r="BL9">
@@ -9194,7 +9197,7 @@
       <c r="BV9" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="BW9" s="12" t="s">
+      <c r="BW9" s="11" t="s">
         <v>328</v>
       </c>
       <c r="BX9">
@@ -9230,7 +9233,7 @@
       <c r="CH9" s="1">
         <v>5</v>
       </c>
-      <c r="CI9" s="12">
+      <c r="CI9" s="11">
         <v>5</v>
       </c>
       <c r="CJ9">
@@ -9266,7 +9269,7 @@
       <c r="CT9" s="1">
         <v>3</v>
       </c>
-      <c r="CU9" s="12">
+      <c r="CU9" s="11">
         <v>3</v>
       </c>
       <c r="CV9">
@@ -9302,7 +9305,7 @@
       <c r="DF9" s="1">
         <v>2</v>
       </c>
-      <c r="DG9" s="12">
+      <c r="DG9" s="11">
         <v>0</v>
       </c>
       <c r="DH9">
@@ -9338,7 +9341,7 @@
       <c r="DR9" s="1">
         <v>0</v>
       </c>
-      <c r="DS9" s="12">
+      <c r="DS9" s="11">
         <v>2</v>
       </c>
       <c r="DT9">
@@ -9374,7 +9377,7 @@
       <c r="ED9" s="1">
         <v>4</v>
       </c>
-      <c r="EE9" s="12">
+      <c r="EE9" s="11">
         <v>4</v>
       </c>
       <c r="EF9">
@@ -9481,7 +9484,7 @@
       <c r="L10" s="1">
         <v>1</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="11" t="s">
         <v>334</v>
       </c>
       <c r="N10" s="1" t="s">
@@ -9523,7 +9526,7 @@
       <c r="Z10" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="AA10" s="12" t="s">
+      <c r="AA10" s="11" t="s">
         <v>340</v>
       </c>
       <c r="AB10">
@@ -9559,7 +9562,7 @@
       <c r="AL10" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="AM10" s="12" t="s">
+      <c r="AM10" s="11" t="s">
         <v>344</v>
       </c>
       <c r="AN10">
@@ -9592,7 +9595,7 @@
       <c r="AX10" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="AY10" s="12" t="s">
+      <c r="AY10" s="11" t="s">
         <v>349</v>
       </c>
       <c r="AZ10">
@@ -9628,7 +9631,7 @@
       <c r="BJ10" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="BK10" s="12" t="s">
+      <c r="BK10" s="11" t="s">
         <v>354</v>
       </c>
       <c r="BL10">
@@ -9664,7 +9667,7 @@
       <c r="BV10" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="BW10" s="12" t="s">
+      <c r="BW10" s="11" t="s">
         <v>358</v>
       </c>
       <c r="BX10">
@@ -9700,7 +9703,7 @@
       <c r="CH10" s="1">
         <v>5</v>
       </c>
-      <c r="CI10" s="12">
+      <c r="CI10" s="11">
         <v>5</v>
       </c>
       <c r="CJ10">
@@ -9736,7 +9739,7 @@
       <c r="CT10" s="1">
         <v>3</v>
       </c>
-      <c r="CU10" s="12">
+      <c r="CU10" s="11">
         <v>3</v>
       </c>
       <c r="CV10">
@@ -9772,7 +9775,7 @@
       <c r="DF10" s="1">
         <v>0</v>
       </c>
-      <c r="DG10" s="12">
+      <c r="DG10" s="11">
         <v>0</v>
       </c>
       <c r="DH10">
@@ -9808,7 +9811,7 @@
       <c r="DR10" s="1">
         <v>0</v>
       </c>
-      <c r="DS10" s="12">
+      <c r="DS10" s="11">
         <v>1</v>
       </c>
       <c r="DT10">
@@ -9844,7 +9847,7 @@
       <c r="ED10" s="1">
         <v>3</v>
       </c>
-      <c r="EE10" s="12">
+      <c r="EE10" s="11">
         <v>3</v>
       </c>
       <c r="EF10">
@@ -9951,13 +9954,13 @@
       <c r="L11" s="1">
         <v>0</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="M11" s="11" t="s">
         <v>194</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="O11" s="12" t="s">
+      <c r="O11" s="11" t="s">
         <v>364</v>
       </c>
       <c r="P11">
@@ -9993,7 +9996,7 @@
       <c r="Z11" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="AA11" s="12" t="s">
+      <c r="AA11" s="11" t="s">
         <v>369</v>
       </c>
       <c r="AB11">
@@ -10029,7 +10032,7 @@
       <c r="AL11" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="AM11" s="12" t="s">
+      <c r="AM11" s="11" t="s">
         <v>373</v>
       </c>
       <c r="AN11">
@@ -10060,7 +10063,7 @@
         <v>374</v>
       </c>
       <c r="AX11" s="1"/>
-      <c r="AY11" s="12" t="s">
+      <c r="AY11" s="11" t="s">
         <v>376</v>
       </c>
       <c r="AZ11">
@@ -10096,7 +10099,7 @@
       <c r="BJ11" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="BK11" s="12" t="s">
+      <c r="BK11" s="11" t="s">
         <v>380</v>
       </c>
       <c r="BL11">
@@ -10132,7 +10135,7 @@
       <c r="BV11" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="BW11" s="12" t="s">
+      <c r="BW11" s="11" t="s">
         <v>384</v>
       </c>
       <c r="BX11">
@@ -10168,7 +10171,7 @@
       <c r="CH11" s="1">
         <v>6</v>
       </c>
-      <c r="CI11" s="12">
+      <c r="CI11" s="11">
         <v>6</v>
       </c>
       <c r="CJ11">
@@ -10204,7 +10207,7 @@
       <c r="CT11" s="1">
         <v>1</v>
       </c>
-      <c r="CU11" s="12">
+      <c r="CU11" s="11">
         <v>1</v>
       </c>
       <c r="CV11">
@@ -10240,7 +10243,7 @@
       <c r="DF11" s="1">
         <v>0</v>
       </c>
-      <c r="DG11" s="12">
+      <c r="DG11" s="11">
         <v>0</v>
       </c>
       <c r="DH11">
@@ -10276,7 +10279,7 @@
       <c r="DR11" s="1">
         <v>0</v>
       </c>
-      <c r="DS11" s="12">
+      <c r="DS11" s="11">
         <v>1</v>
       </c>
       <c r="DT11">
@@ -10312,7 +10315,7 @@
       <c r="ED11" s="1">
         <v>4</v>
       </c>
-      <c r="EE11" s="12">
+      <c r="EE11" s="11">
         <v>4</v>
       </c>
       <c r="EF11">
@@ -10419,7 +10422,7 @@
       <c r="L12" s="1">
         <v>1</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="M12" s="11" t="s">
         <v>391</v>
       </c>
       <c r="N12" s="1" t="s">
@@ -10459,7 +10462,7 @@
       <c r="Z12" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="AA12" s="12" t="s">
+      <c r="AA12" s="11" t="s">
         <v>396</v>
       </c>
       <c r="AB12">
@@ -10495,7 +10498,7 @@
       <c r="AL12" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="AM12" s="12" t="s">
+      <c r="AM12" s="11" t="s">
         <v>400</v>
       </c>
       <c r="AN12">
@@ -10531,7 +10534,7 @@
       <c r="AX12" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="AY12" s="12" t="s">
+      <c r="AY12" s="11" t="s">
         <v>404</v>
       </c>
       <c r="AZ12">
@@ -10567,7 +10570,7 @@
       <c r="BJ12" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="BK12" s="12" t="s">
+      <c r="BK12" s="11" t="s">
         <v>408</v>
       </c>
       <c r="BL12">
@@ -10603,7 +10606,7 @@
       <c r="BV12" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="BW12" s="12" t="s">
+      <c r="BW12" s="11" t="s">
         <v>413</v>
       </c>
       <c r="BX12">
@@ -10639,7 +10642,7 @@
       <c r="CH12" s="1">
         <v>7</v>
       </c>
-      <c r="CI12" s="12">
+      <c r="CI12" s="11">
         <v>7</v>
       </c>
       <c r="CJ12">
@@ -10675,7 +10678,7 @@
       <c r="CT12" s="1">
         <v>2</v>
       </c>
-      <c r="CU12" s="12">
+      <c r="CU12" s="11">
         <v>2</v>
       </c>
       <c r="CV12">
@@ -10711,7 +10714,7 @@
       <c r="DF12" s="1">
         <v>3</v>
       </c>
-      <c r="DG12" s="12">
+      <c r="DG12" s="11">
         <v>0</v>
       </c>
       <c r="DH12">
@@ -10747,7 +10750,7 @@
       <c r="DR12" s="1">
         <v>0</v>
       </c>
-      <c r="DS12" s="12">
+      <c r="DS12" s="11">
         <v>4</v>
       </c>
       <c r="DT12">
@@ -10783,7 +10786,7 @@
       <c r="ED12" s="1">
         <v>3</v>
       </c>
-      <c r="EE12" s="12">
+      <c r="EE12" s="11">
         <v>3</v>
       </c>
       <c r="EF12">
@@ -10890,13 +10893,13 @@
       <c r="L13" s="1">
         <v>1</v>
       </c>
-      <c r="M13" s="12" t="s">
+      <c r="M13" s="11" t="s">
         <v>194</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="O13" s="12" t="s">
+      <c r="O13" s="11" t="s">
         <v>419</v>
       </c>
       <c r="P13">
@@ -10932,7 +10935,7 @@
       <c r="Z13" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="AA13" s="12" t="s">
+      <c r="AA13" s="11" t="s">
         <v>423</v>
       </c>
       <c r="AB13">
@@ -10968,7 +10971,7 @@
       <c r="AL13" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="AM13" s="12" t="s">
+      <c r="AM13" s="11" t="s">
         <v>427</v>
       </c>
       <c r="AN13">
@@ -11004,7 +11007,7 @@
       <c r="AX13" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="AY13" s="12" t="s">
+      <c r="AY13" s="11" t="s">
         <v>432</v>
       </c>
       <c r="AZ13">
@@ -11040,7 +11043,7 @@
       <c r="BJ13" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="BK13" s="12" t="s">
+      <c r="BK13" s="11" t="s">
         <v>435</v>
       </c>
       <c r="BL13">
@@ -11076,7 +11079,7 @@
       <c r="BV13" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="BW13" s="12" t="s">
+      <c r="BW13" s="11" t="s">
         <v>439</v>
       </c>
       <c r="BX13">
@@ -11112,7 +11115,7 @@
       <c r="CH13" s="1">
         <v>6</v>
       </c>
-      <c r="CI13" s="12">
+      <c r="CI13" s="11">
         <v>6</v>
       </c>
       <c r="CJ13">
@@ -11148,7 +11151,7 @@
       <c r="CT13" s="1">
         <v>3</v>
       </c>
-      <c r="CU13" s="12">
+      <c r="CU13" s="11">
         <v>3</v>
       </c>
       <c r="CV13">
@@ -11184,7 +11187,7 @@
       <c r="DF13" s="1">
         <v>1</v>
       </c>
-      <c r="DG13" s="12">
+      <c r="DG13" s="11">
         <v>1</v>
       </c>
       <c r="DH13">
@@ -11220,7 +11223,7 @@
       <c r="DR13" s="1">
         <v>1</v>
       </c>
-      <c r="DS13" s="12">
+      <c r="DS13" s="11">
         <v>1</v>
       </c>
       <c r="DT13">
@@ -11256,7 +11259,7 @@
       <c r="ED13" s="1">
         <v>4</v>
       </c>
-      <c r="EE13" s="12">
+      <c r="EE13" s="11">
         <v>4</v>
       </c>
       <c r="EF13">
@@ -11363,13 +11366,13 @@
       <c r="L14" s="1">
         <v>1</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="M14" s="11" t="s">
         <v>194</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="O14" s="12" t="s">
+      <c r="O14" s="11" t="s">
         <v>444</v>
       </c>
       <c r="P14">
@@ -11405,7 +11408,7 @@
       <c r="Z14" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="AA14" s="12" t="s">
+      <c r="AA14" s="11" t="s">
         <v>448</v>
       </c>
       <c r="AB14">
@@ -11441,7 +11444,7 @@
       <c r="AL14" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="AM14" s="12" t="s">
+      <c r="AM14" s="11" t="s">
         <v>452</v>
       </c>
       <c r="AN14">
@@ -11477,7 +11480,7 @@
       <c r="AX14" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="AY14" s="12" t="s">
+      <c r="AY14" s="11" t="s">
         <v>456</v>
       </c>
       <c r="AZ14">
@@ -11513,7 +11516,7 @@
       <c r="BJ14" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="BK14" s="12" t="s">
+      <c r="BK14" s="11" t="s">
         <v>460</v>
       </c>
       <c r="BL14">
@@ -11549,7 +11552,7 @@
       <c r="BV14" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="BW14" s="12" t="s">
+      <c r="BW14" s="11" t="s">
         <v>464</v>
       </c>
       <c r="BX14">
@@ -11585,7 +11588,7 @@
       <c r="CH14" s="1">
         <v>6</v>
       </c>
-      <c r="CI14" s="12">
+      <c r="CI14" s="11">
         <v>6</v>
       </c>
       <c r="CJ14">
@@ -11621,7 +11624,7 @@
       <c r="CT14" s="1">
         <v>3</v>
       </c>
-      <c r="CU14" s="12">
+      <c r="CU14" s="11">
         <v>3</v>
       </c>
       <c r="CV14">
@@ -11657,7 +11660,7 @@
       <c r="DF14" s="1">
         <v>2</v>
       </c>
-      <c r="DG14" s="12">
+      <c r="DG14" s="11">
         <v>1</v>
       </c>
       <c r="DH14">
@@ -11693,7 +11696,7 @@
       <c r="DR14" s="1">
         <v>1</v>
       </c>
-      <c r="DS14" s="12">
+      <c r="DS14" s="11">
         <v>2</v>
       </c>
       <c r="DT14">
@@ -11729,7 +11732,7 @@
       <c r="ED14" s="1">
         <v>3</v>
       </c>
-      <c r="EE14" s="12">
+      <c r="EE14" s="11">
         <v>3</v>
       </c>
       <c r="EF14">
@@ -12297,7 +12300,7 @@
       <c r="M16" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="N16" s="12" t="s">
+      <c r="N16" s="11" t="s">
         <v>496</v>
       </c>
       <c r="O16" s="1" t="s">
@@ -12336,7 +12339,7 @@
       <c r="Z16" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="AA16" s="12" t="s">
+      <c r="AA16" s="11" t="s">
         <v>501</v>
       </c>
       <c r="AB16">
@@ -12372,7 +12375,7 @@
       <c r="AL16" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="AM16" s="12" t="s">
+      <c r="AM16" s="11" t="s">
         <v>505</v>
       </c>
       <c r="AN16">
@@ -12408,7 +12411,7 @@
       <c r="AX16" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="AY16" s="12" t="s">
+      <c r="AY16" s="11" t="s">
         <v>509</v>
       </c>
       <c r="AZ16">
@@ -12444,7 +12447,7 @@
       <c r="BJ16" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="BK16" s="12" t="s">
+      <c r="BK16" s="11" t="s">
         <v>513</v>
       </c>
       <c r="BL16">
@@ -12480,7 +12483,7 @@
       <c r="BV16" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="BW16" s="12" t="s">
+      <c r="BW16" s="11" t="s">
         <v>517</v>
       </c>
       <c r="BX16">
@@ -12516,7 +12519,7 @@
       <c r="CH16" s="1">
         <v>4</v>
       </c>
-      <c r="CI16" s="12">
+      <c r="CI16" s="11">
         <v>4</v>
       </c>
       <c r="CJ16">
@@ -12552,7 +12555,7 @@
       <c r="CT16" s="1">
         <v>1</v>
       </c>
-      <c r="CU16" s="12">
+      <c r="CU16" s="11">
         <v>1</v>
       </c>
       <c r="CV16">
@@ -12588,7 +12591,7 @@
       <c r="DF16" s="1">
         <v>0</v>
       </c>
-      <c r="DG16" s="12">
+      <c r="DG16" s="11">
         <v>0</v>
       </c>
       <c r="DH16">
@@ -12624,7 +12627,7 @@
       <c r="DR16" s="1">
         <v>0</v>
       </c>
-      <c r="DS16" s="12">
+      <c r="DS16" s="11">
         <v>0</v>
       </c>
       <c r="DT16">
@@ -12660,7 +12663,7 @@
       <c r="ED16" s="1">
         <v>2</v>
       </c>
-      <c r="EE16" s="12">
+      <c r="EE16" s="11">
         <v>2</v>
       </c>
       <c r="EF16">
@@ -12767,10 +12770,10 @@
       <c r="L17" s="1">
         <v>1</v>
       </c>
-      <c r="M17" s="12" t="s">
+      <c r="M17" s="11" t="s">
         <v>523</v>
       </c>
-      <c r="N17" s="12" t="s">
+      <c r="N17" s="11" t="s">
         <v>524</v>
       </c>
       <c r="O17" s="1">
@@ -13282,7 +13285,7 @@
       <c r="Z18" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="AA18" s="12" t="s">
+      <c r="AA18" s="11" t="s">
         <v>553</v>
       </c>
       <c r="AB18">
@@ -13318,7 +13321,7 @@
       <c r="AL18" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="AM18" s="12" t="s">
+      <c r="AM18" s="11" t="s">
         <v>555</v>
       </c>
       <c r="AN18">
@@ -13354,7 +13357,7 @@
       <c r="AX18" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="AY18" s="12" t="s">
+      <c r="AY18" s="11" t="s">
         <v>559</v>
       </c>
       <c r="AZ18">
@@ -13390,7 +13393,7 @@
       <c r="BJ18" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="BK18" s="12" t="s">
+      <c r="BK18" s="11" t="s">
         <v>562</v>
       </c>
       <c r="BL18">
@@ -13423,7 +13426,7 @@
       <c r="BV18" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="BW18" s="12" t="s">
+      <c r="BW18" s="11" t="s">
         <v>565</v>
       </c>
       <c r="BX18">
@@ -13439,19 +13442,19 @@
       <c r="CF18" s="1"/>
       <c r="CG18" s="1"/>
       <c r="CH18" s="1"/>
-      <c r="CI18" s="12"/>
+      <c r="CI18" s="11"/>
       <c r="CP18" s="1"/>
       <c r="CQ18" s="1"/>
       <c r="CR18" s="1"/>
       <c r="CS18" s="1"/>
       <c r="CT18" s="1"/>
-      <c r="CU18" s="12"/>
+      <c r="CU18" s="11"/>
       <c r="DB18" s="1"/>
       <c r="DC18" s="1"/>
       <c r="DD18" s="1"/>
       <c r="DE18" s="1"/>
       <c r="DF18" s="1"/>
-      <c r="DG18" s="12"/>
+      <c r="DG18" s="11"/>
       <c r="DM18">
         <v>0</v>
       </c>
@@ -13460,13 +13463,13 @@
       <c r="DP18" s="1"/>
       <c r="DQ18" s="1"/>
       <c r="DR18" s="1"/>
-      <c r="DS18" s="12"/>
+      <c r="DS18" s="11"/>
       <c r="DZ18" s="1"/>
       <c r="EA18" s="1"/>
       <c r="EB18" s="1"/>
       <c r="EC18" s="1"/>
       <c r="ED18" s="1"/>
-      <c r="EE18" s="12"/>
+      <c r="EE18" s="11"/>
       <c r="EO18">
         <v>0</v>
       </c>
@@ -13483,157 +13486,161 @@
       </c>
     </row>
     <row r="22" spans="1:157" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="15">
-        <v>1</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17">
-        <v>2</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="15">
+      <c r="A22" s="4"/>
+      <c r="B22" s="18">
+        <v>1</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20">
+        <v>2</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="18">
         <v>3</v>
       </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17">
+      <c r="G22" s="19"/>
+      <c r="H22" s="20">
         <v>4</v>
       </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="15">
+      <c r="I22" s="21"/>
+      <c r="J22" s="18">
         <v>5</v>
       </c>
-      <c r="K22" s="16"/>
-      <c r="L22" s="17">
+      <c r="K22" s="19"/>
+      <c r="L22" s="20">
         <v>6</v>
       </c>
-      <c r="M22" s="18"/>
-      <c r="N22" s="15">
+      <c r="M22" s="21"/>
+      <c r="N22" s="18">
         <v>7</v>
       </c>
-      <c r="O22" s="16"/>
-      <c r="P22" s="17">
+      <c r="O22" s="19"/>
+      <c r="P22" s="20">
         <v>8</v>
       </c>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="15">
+      <c r="Q22" s="21"/>
+      <c r="R22" s="18">
         <v>9</v>
       </c>
-      <c r="S22" s="16"/>
-      <c r="T22" s="17">
+      <c r="S22" s="19"/>
+      <c r="T22" s="20">
         <v>10</v>
       </c>
-      <c r="U22" s="18"/>
-      <c r="V22" s="15">
+      <c r="U22" s="21"/>
+      <c r="V22" s="18">
         <v>11</v>
       </c>
-      <c r="W22" s="16"/>
-      <c r="X22" s="17">
+      <c r="W22" s="19"/>
+      <c r="X22" s="20">
         <v>12</v>
       </c>
-      <c r="Y22" s="18"/>
+      <c r="Y22" s="21"/>
     </row>
     <row r="23" spans="1:157" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="15">
-        <v>1</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17">
+      <c r="A23" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="B23" s="18">
+        <v>1</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20">
         <v>17</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="15">
+      <c r="E23" s="21"/>
+      <c r="F23" s="18">
         <v>7</v>
       </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17">
+      <c r="G23" s="19"/>
+      <c r="H23" s="20">
         <v>14</v>
       </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="15">
+      <c r="I23" s="21"/>
+      <c r="J23" s="18">
         <v>13</v>
       </c>
-      <c r="K23" s="16"/>
-      <c r="L23" s="17">
+      <c r="K23" s="19"/>
+      <c r="L23" s="20">
         <v>8</v>
       </c>
-      <c r="M23" s="18"/>
-      <c r="N23" s="15">
+      <c r="M23" s="21"/>
+      <c r="N23" s="18">
         <v>22</v>
       </c>
-      <c r="O23" s="16"/>
-      <c r="P23" s="17">
+      <c r="O23" s="19"/>
+      <c r="P23" s="20">
         <v>21</v>
       </c>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="15">
+      <c r="Q23" s="21"/>
+      <c r="R23" s="18">
         <v>11</v>
       </c>
-      <c r="S23" s="16"/>
-      <c r="T23" s="17">
+      <c r="S23" s="19"/>
+      <c r="T23" s="20">
         <v>6</v>
       </c>
-      <c r="U23" s="18"/>
-      <c r="V23" s="15">
-        <v>2</v>
-      </c>
-      <c r="W23" s="16"/>
-      <c r="X23" s="17">
+      <c r="U23" s="21"/>
+      <c r="V23" s="18">
+        <v>2</v>
+      </c>
+      <c r="W23" s="19"/>
+      <c r="X23" s="20">
         <v>20</v>
       </c>
-      <c r="Y23" s="18"/>
+      <c r="Y23" s="21"/>
     </row>
-    <row r="24" spans="1:157" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+    <row r="24" spans="1:157" s="12" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="16" t="s">
         <v>566</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="20" t="s">
+      <c r="C24" s="17"/>
+      <c r="D24" s="16" t="s">
         <v>568</v>
       </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="20" t="s">
+      <c r="E24" s="17"/>
+      <c r="F24" s="16" t="s">
         <v>569</v>
       </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="20" t="s">
+      <c r="G24" s="17"/>
+      <c r="H24" s="16" t="s">
         <v>571</v>
       </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="20" t="s">
+      <c r="I24" s="17"/>
+      <c r="J24" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="K24" s="21"/>
-      <c r="L24" s="20" t="s">
+      <c r="K24" s="17"/>
+      <c r="L24" s="16" t="s">
         <v>573</v>
       </c>
-      <c r="M24" s="21"/>
-      <c r="N24" s="20" t="s">
+      <c r="M24" s="17"/>
+      <c r="N24" s="16" t="s">
         <v>574</v>
       </c>
-      <c r="O24" s="21"/>
-      <c r="P24" s="20" t="s">
+      <c r="O24" s="17"/>
+      <c r="P24" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="20" t="s">
+      <c r="Q24" s="17"/>
+      <c r="R24" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="S24" s="21"/>
-      <c r="T24" s="20" t="s">
+      <c r="S24" s="17"/>
+      <c r="T24" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="U24" s="21"/>
-      <c r="V24" s="20" t="s">
+      <c r="U24" s="17"/>
+      <c r="V24" s="16" t="s">
         <v>567</v>
       </c>
-      <c r="W24" s="21"/>
-      <c r="X24" s="20" t="s">
+      <c r="W24" s="17"/>
+      <c r="X24" s="16" t="s">
         <v>578</v>
       </c>
-      <c r="Y24" s="21"/>
+      <c r="Y24" s="17"/>
     </row>
     <row r="25" spans="1:157" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
@@ -15075,7 +15082,7 @@
       </c>
       <c r="BL40" s="1"/>
     </row>
-    <row r="41" spans="1:64" s="14" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:64" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>579</v>
       </c>
@@ -15198,19 +15205,19 @@
         <f>B24</f>
         <v>1-factorial</v>
       </c>
-      <c r="B44" s="22">
+      <c r="B44" s="15">
         <f>B41</f>
         <v>14</v>
       </c>
-      <c r="C44" s="22">
-        <f>16-B44</f>
-        <v>2</v>
-      </c>
-      <c r="D44" s="22">
+      <c r="C44" s="15">
+        <f t="shared" ref="C44:C55" si="12">16-B44</f>
+        <v>2</v>
+      </c>
+      <c r="D44" s="15">
         <f>ROUND(E44/1000, 2)</f>
         <v>274.95</v>
       </c>
-      <c r="E44" s="22">
+      <c r="E44" s="15">
         <f>C41</f>
         <v>274952.21428571426</v>
       </c>
@@ -15220,19 +15227,19 @@
         <f>D24</f>
         <v>17-check-wether-substring-is-contained</v>
       </c>
-      <c r="B45" s="22">
+      <c r="B45" s="15">
         <f>D41</f>
         <v>11</v>
       </c>
-      <c r="C45" s="22">
-        <f>16-B45</f>
+      <c r="C45" s="15">
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="D45" s="22">
-        <f t="shared" ref="D45:D55" si="12">ROUND(E45/1000, 2)</f>
+      <c r="D45" s="15">
+        <f t="shared" ref="D45:D55" si="13">ROUND(E45/1000, 2)</f>
         <v>229.65</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E45" s="15">
         <f>E41</f>
         <v>229647.45454545456</v>
       </c>
@@ -15242,19 +15249,19 @@
         <f>F24</f>
         <v>7-find-max-nb</v>
       </c>
-      <c r="B46" s="22">
+      <c r="B46" s="15">
         <f>F41</f>
         <v>13</v>
       </c>
-      <c r="C46" s="22">
-        <f>16-B46</f>
+      <c r="C46" s="15">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="D46" s="22">
-        <f t="shared" si="12"/>
+      <c r="D46" s="15">
+        <f t="shared" si="13"/>
         <v>151.47999999999999</v>
       </c>
-      <c r="E46" s="22">
+      <c r="E46" s="15">
         <f>G41</f>
         <v>151484.30769230769</v>
       </c>
@@ -15264,19 +15271,19 @@
         <f>H24</f>
         <v>14-reverse-string</v>
       </c>
-      <c r="B47" s="22">
+      <c r="B47" s="15">
         <f>H41</f>
         <v>15</v>
       </c>
-      <c r="C47" s="22">
-        <f>16-B47</f>
-        <v>1</v>
-      </c>
-      <c r="D47" s="22">
+      <c r="C47" s="15">
         <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D47" s="15">
+        <f t="shared" si="13"/>
         <v>120.43</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E47" s="15">
         <f>I41</f>
         <v>120425.93333333333</v>
       </c>
@@ -15286,19 +15293,19 @@
         <f>J24</f>
         <v>13-swap</v>
       </c>
-      <c r="B48" s="22">
+      <c r="B48" s="15">
         <f>J41</f>
         <v>16</v>
       </c>
-      <c r="C48" s="22">
-        <f>16-B48</f>
-        <v>0</v>
-      </c>
-      <c r="D48" s="22">
+      <c r="C48" s="15">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D48" s="15">
+        <f t="shared" si="13"/>
         <v>72.540000000000006</v>
       </c>
-      <c r="E48" s="22">
+      <c r="E48" s="15">
         <f>K41</f>
         <v>72537.25</v>
       </c>
@@ -15308,19 +15315,19 @@
         <f>L24</f>
         <v>8-cross-sum</v>
       </c>
-      <c r="B49" s="22">
+      <c r="B49" s="15">
         <f>L41</f>
         <v>14</v>
       </c>
-      <c r="C49" s="22">
-        <f>16-B49</f>
-        <v>2</v>
-      </c>
-      <c r="D49" s="22">
+      <c r="C49" s="15">
         <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D49" s="15">
+        <f t="shared" si="13"/>
         <v>140.81</v>
       </c>
-      <c r="E49" s="22">
+      <c r="E49" s="15">
         <f>M41</f>
         <v>140812.78571428571</v>
       </c>
@@ -15330,19 +15337,19 @@
         <f>N24</f>
         <v>22-median-sorted-data</v>
       </c>
-      <c r="B50" s="22">
+      <c r="B50" s="15">
         <f>N41</f>
         <v>7</v>
       </c>
-      <c r="C50" s="22">
-        <f>16-B50</f>
+      <c r="C50" s="15">
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
-      <c r="D50" s="22">
-        <f t="shared" si="12"/>
+      <c r="D50" s="15">
+        <f t="shared" si="13"/>
         <v>381.56</v>
       </c>
-      <c r="E50" s="22">
+      <c r="E50" s="15">
         <f>O41</f>
         <v>381556.71428571426</v>
       </c>
@@ -15352,19 +15359,19 @@
         <f>P24</f>
         <v>21-reverse-entries-array</v>
       </c>
-      <c r="B51" s="22">
+      <c r="B51" s="15">
         <f>P41</f>
         <v>11</v>
       </c>
-      <c r="C51" s="22">
-        <f>16-B51</f>
+      <c r="C51" s="15">
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="D51" s="22">
-        <f t="shared" si="12"/>
+      <c r="D51" s="15">
+        <f t="shared" si="13"/>
         <v>264</v>
       </c>
-      <c r="E51" s="22">
+      <c r="E51" s="15">
         <f>Q41</f>
         <v>263995.90909090912</v>
       </c>
@@ -15374,19 +15381,19 @@
         <f>R24</f>
         <v>11-power</v>
       </c>
-      <c r="B52" s="22">
+      <c r="B52" s="15">
         <f>R41</f>
         <v>11</v>
       </c>
-      <c r="C52" s="22">
-        <f>16-B52</f>
+      <c r="C52" s="15">
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="D52" s="22">
-        <f t="shared" si="12"/>
+      <c r="D52" s="15">
+        <f t="shared" si="13"/>
         <v>159.03</v>
       </c>
-      <c r="E52" s="22">
+      <c r="E52" s="15">
         <f>S41</f>
         <v>159025.72727272726</v>
       </c>
@@ -15396,19 +15403,19 @@
         <f>T24</f>
         <v>6-sum-from-1-to-n</v>
       </c>
-      <c r="B53" s="22">
+      <c r="B53" s="15">
         <f>T41</f>
         <v>16</v>
       </c>
-      <c r="C53" s="22">
-        <f>16-B53</f>
-        <v>0</v>
-      </c>
-      <c r="D53" s="22">
+      <c r="C53" s="15">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D53" s="15">
+        <f t="shared" si="13"/>
         <v>68.290000000000006</v>
       </c>
-      <c r="E53" s="22">
+      <c r="E53" s="15">
         <f>U41</f>
         <v>68285.9375</v>
       </c>
@@ -15418,19 +15425,19 @@
         <f>V24</f>
         <v>2-count-chars-at-same-pos-in-string</v>
       </c>
-      <c r="B54" s="22">
+      <c r="B54" s="15">
         <f>V41</f>
         <v>15</v>
       </c>
-      <c r="C54" s="22">
-        <f>16-B54</f>
-        <v>1</v>
-      </c>
-      <c r="D54" s="22">
+      <c r="C54" s="15">
         <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D54" s="15">
+        <f t="shared" si="13"/>
         <v>125.47</v>
       </c>
-      <c r="E54" s="22">
+      <c r="E54" s="15">
         <f>W41</f>
         <v>125472.46666666666</v>
       </c>
@@ -15440,25 +15447,50 @@
         <f>X24</f>
         <v>20-decimal-to-binary</v>
       </c>
-      <c r="B55" s="22">
+      <c r="B55" s="15">
         <f>X41</f>
         <v>8</v>
       </c>
-      <c r="C55" s="22">
-        <f>16-B55</f>
+      <c r="C55" s="15">
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="D55" s="22">
-        <f t="shared" si="12"/>
+      <c r="D55" s="15">
+        <f t="shared" si="13"/>
         <v>259.10000000000002</v>
       </c>
-      <c r="E55" s="22">
+      <c r="E55" s="15">
         <f>Y41</f>
         <v>259097.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
     <mergeCell ref="R24:S24"/>
     <mergeCell ref="T24:U24"/>
     <mergeCell ref="V24:W24"/>
@@ -15471,31 +15503,6 @@
     <mergeCell ref="T23:U23"/>
     <mergeCell ref="V23:W23"/>
     <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="F23:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
